--- a/data/trans_bre/PCS12_SP_R3-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PCS12_SP_R3-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>14.87658765655095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17.43948881260453</v>
+        <v>17.43948881260452</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.534442531633057</v>
@@ -649,7 +649,7 @@
         <v>0.4116767573418215</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4083415009908478</v>
+        <v>0.4083415009908475</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>12.95828200126262</v>
+        <v>13.19343066707254</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.80332132773769</v>
+        <v>11.70363772139456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.38719169667655</v>
+        <v>10.24418447988884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12.74952153274762</v>
+        <v>12.56380160481079</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.381575987486634</v>
+        <v>0.3855067632862169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.296405668082185</v>
+        <v>0.3025369026862924</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2720494870097522</v>
+        <v>0.2603677384279672</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2799346051208852</v>
+        <v>0.2728382244366763</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.46732939567356</v>
+        <v>20.82741645927002</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.34497188790936</v>
+        <v>19.84581929786772</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.73206854225526</v>
+        <v>19.63114865805498</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.15870494674211</v>
+        <v>22.1676669204493</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7183933856982178</v>
+        <v>0.7004196553256631</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6035281178409071</v>
+        <v>0.5896154158517475</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5876396996334055</v>
+        <v>0.5800027544413896</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5698385557152386</v>
+        <v>0.5613725185714545</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.609739289717146</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.277146883231882</v>
+        <v>5.277146883231879</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5713613972514948</v>
@@ -749,7 +749,7 @@
         <v>0.4729624853263296</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2879353244773439</v>
+        <v>0.2879353244773437</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.448649192841247</v>
+        <v>2.801142620684009</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.260010370297825</v>
+        <v>3.518848260697047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.25443640949612</v>
+        <v>3.276873026566676</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.635121801512293</v>
+        <v>2.943474670984421</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2652136772521412</v>
+        <v>0.2887054694271927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2770051993121804</v>
+        <v>0.3000228503961343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2531203582217671</v>
+        <v>0.2497911451144758</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1393510522795589</v>
+        <v>0.1502172597353143</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.13174085660316</v>
+        <v>7.074132047838209</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.084660005005516</v>
+        <v>8.207322696054428</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.010129693224286</v>
+        <v>7.792258124673198</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.475367003911433</v>
+        <v>7.657846672447893</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9365049674011592</v>
+        <v>0.9162693844683647</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8493081179729174</v>
+        <v>0.8413388724596755</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7304376418011097</v>
+        <v>0.708625406531882</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4399850888896845</v>
+        <v>0.4487020709826524</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.961454506184614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.990596900948862</v>
+        <v>3.990596900948859</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6310276769744958</v>
@@ -849,7 +849,7 @@
         <v>0.4651094042875817</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3103914311467517</v>
+        <v>0.3103914311467514</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.996584123066579</v>
+        <v>1.051091191146627</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.341352469689078</v>
+        <v>-3.973048200889383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.08749184441231811</v>
+        <v>0.2384467707533039</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4194573500292106</v>
+        <v>0.561420867304641</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07907023308050698</v>
+        <v>0.0953522730002279</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3722702753741859</v>
+        <v>-0.3450955906538716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.02969954487404792</v>
+        <v>0.002737599867205419</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.02521625336375005</v>
+        <v>0.03644565236595519</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.023176574676489</v>
+        <v>8.823983411396352</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.006879550132266</v>
+        <v>3.918880420701652</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.050519734265254</v>
+        <v>8.144035601586932</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.135963299361824</v>
+        <v>7.114594899209635</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.571315225454301</v>
+        <v>1.455671591340797</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5603107494282225</v>
+        <v>0.5209195446187</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.230408318346975</v>
+        <v>1.250939706152441</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6619716030735773</v>
+        <v>0.6710517746519057</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.399141476165745</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.055429056115507</v>
+        <v>9.055429056115505</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7214353064448424</v>
@@ -949,7 +949,7 @@
         <v>0.5614397306677076</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.42690933414189</v>
+        <v>0.4269093341418898</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.501165778461578</v>
+        <v>9.586124769980184</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.017979043106987</v>
+        <v>9.18356572761969</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.461220249717727</v>
+        <v>7.451517475880907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.147122403789806</v>
+        <v>7.15022455627793</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5656642655497136</v>
+        <v>0.5708019396988604</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4731291893994501</v>
+        <v>0.4887096622307574</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4209944256061344</v>
+        <v>0.4261573472397265</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.322543476969883</v>
+        <v>0.3204280599575601</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.31772901337341</v>
+        <v>13.59307871903723</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.30720825735598</v>
+        <v>13.34879981555274</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.44711913918648</v>
+        <v>11.50139951863308</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.89328803428226</v>
+        <v>10.76451856904771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8994881477978343</v>
+        <v>0.9062102138165012</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7922370405801801</v>
+        <v>0.7927632810595766</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7350302636359458</v>
+        <v>0.7159314491111859</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.540485874505519</v>
+        <v>0.5320080529904332</v>
       </c>
     </row>
     <row r="16">
